--- a/5. Other/Chiết khấu/Năm 2025/Chiết-Khấu-tháng-11-2025.xlsx
+++ b/5. Other/Chiết khấu/Năm 2025/Chiết-Khấu-tháng-11-2025.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6959C28A-98E4-4BF8-AF19-6C2A939E7401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E457B846-D17B-44B5-9644-61A9E1852C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bảng tính CK" sheetId="1" r:id="rId1"/>
@@ -747,6 +747,72 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -762,11 +828,23 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -774,6 +852,15 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -792,6 +879,21 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="8"/>
+    </xf>
+    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="7"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -800,6 +902,12 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -807,10 +915,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -877,144 +1015,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="7"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="8"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1492,7 +1492,7 @@
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1506,91 +1506,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="60"/>
-      <c r="B1" s="61"/>
-      <c r="C1" s="105" t="s">
+      <c r="A1" s="82"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="105"/>
-      <c r="E1" s="105"/>
-      <c r="F1" s="105"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="60"/>
-      <c r="B2" s="61"/>
-      <c r="C2" s="108" t="s">
+      <c r="A2" s="82"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="87" t="s">
         <v>60</v>
       </c>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="110"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="89"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="60"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="111" t="s">
+      <c r="A3" s="82"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="112"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="97"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="60"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="62" t="s">
+      <c r="A4" s="82"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="64"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="86"/>
     </row>
     <row r="5" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="94"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="126"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="128" t="str">
+      <c r="A6" s="69"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="92" t="str">
         <f>'Phiếu tính CK'!H6</f>
         <v>Hà Nội, ngày 29 tháng 11 năm 2025</v>
       </c>
-      <c r="F6" s="128"/>
+      <c r="F6" s="92"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="145" t="s">
+      <c r="A7" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="145"/>
-      <c r="C7" s="145"/>
-      <c r="D7" s="145"/>
-      <c r="E7" s="145"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="91"/>
+      <c r="D7" s="91"/>
+      <c r="E7" s="91"/>
       <c r="F7" s="28"/>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="146" t="s">
+      <c r="A8" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="146"/>
-      <c r="C8" s="146"/>
-      <c r="D8" s="147"/>
-      <c r="E8" s="146"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="79"/>
       <c r="F8" s="28"/>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25"/>
       <c r="B9" s="25"/>
       <c r="C9" s="25"/>
-      <c r="D9" s="129"/>
+      <c r="D9" s="71"/>
       <c r="E9" s="25"/>
       <c r="F9" s="28"/>
     </row>
@@ -1657,10 +1657,10 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="69" t="s">
+      <c r="A13" s="98" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="70"/>
+      <c r="B13" s="99"/>
       <c r="C13" s="54">
         <f>SUM(C11:C12)</f>
         <v>574</v>
@@ -1670,12 +1670,12 @@
       <c r="F13" s="49"/>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="71" t="s">
+      <c r="A14" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="71"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="71"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
       <c r="E14" s="53">
         <f>SUM(E11:E12)</f>
         <v>3444000</v>
@@ -1686,7 +1686,7 @@
       <c r="A15" s="21"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
-      <c r="D15" s="130"/>
+      <c r="D15" s="72"/>
       <c r="E15" s="21"/>
       <c r="F15" s="28"/>
     </row>
@@ -1694,38 +1694,38 @@
       <c r="A16" s="21"/>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
-      <c r="D16" s="131"/>
+      <c r="D16" s="73"/>
       <c r="E16" s="21"/>
       <c r="F16" s="28"/>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="101" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="72"/>
+      <c r="B17" s="101"/>
       <c r="C17" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="72" t="s">
+      <c r="D17" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="72"/>
+      <c r="E17" s="101"/>
       <c r="F17" s="9" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="73" t="s">
+      <c r="A18" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="73"/>
+      <c r="B18" s="102"/>
       <c r="C18" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="73" t="s">
+      <c r="D18" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="73"/>
+      <c r="E18" s="102"/>
       <c r="F18" s="27" t="s">
         <v>7</v>
       </c>
@@ -1763,17 +1763,17 @@
       <c r="F22" s="22"/>
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="72" t="s">
+      <c r="A23" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="72"/>
+      <c r="B23" s="101"/>
       <c r="C23" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D23" s="72" t="s">
+      <c r="D23" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="E23" s="72"/>
+      <c r="E23" s="101"/>
       <c r="F23" s="9" t="s">
         <v>10</v>
       </c>
@@ -1842,8 +1842,8 @@
   </sheetPr>
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1865,79 +1865,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="78"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="117" t="s">
+      <c r="A1" s="114"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="116" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="78"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="65" t="s">
+      <c r="A2" s="114"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="125" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="66"/>
+      <c r="D2" s="126"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="127"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="78"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="111" t="s">
+      <c r="A3" s="114"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="95" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
-      <c r="H3" s="112"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="97"/>
     </row>
     <row r="4" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="62" t="s">
+      <c r="A4" s="114"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="64"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="86"/>
     </row>
     <row r="5" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="80" t="s">
+      <c r="A5" s="117" t="s">
         <v>70</v>
       </c>
-      <c r="B5" s="81"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
-      <c r="G5" s="115"/>
-      <c r="H5" s="116"/>
+      <c r="B5" s="118"/>
+      <c r="C5" s="119"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="120"/>
     </row>
     <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="140"/>
-      <c r="B6" s="119"/>
-      <c r="C6" s="120"/>
-      <c r="D6" s="120"/>
-      <c r="E6" s="118"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="118"/>
-      <c r="H6" s="118" t="s">
+      <c r="A6" s="74"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="141" t="s">
+      <c r="A7" s="75" t="s">
         <v>36</v>
       </c>
       <c r="B7" s="28"/>
@@ -1949,7 +1949,7 @@
       <c r="H7" s="28"/>
     </row>
     <row r="8" spans="1:8" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="142" t="s">
+      <c r="A8" s="76" t="s">
         <v>46</v>
       </c>
       <c r="B8" s="28"/>
@@ -1971,10 +1971,10 @@
       <c r="H9" s="28"/>
     </row>
     <row r="10" spans="1:8" s="3" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="132" t="s">
+      <c r="A10" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="133"/>
+      <c r="B10" s="122"/>
       <c r="C10" s="52">
         <f>'Bảng tính CK'!E14</f>
         <v>3444000</v>
@@ -1986,10 +1986,10 @@
       <c r="H10" s="28"/>
     </row>
     <row r="11" spans="1:8" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="134" t="s">
+      <c r="A11" s="107" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="135"/>
+      <c r="B11" s="108"/>
       <c r="C11" s="52">
         <v>4</v>
       </c>
@@ -2000,10 +2000,10 @@
       <c r="H11" s="28"/>
     </row>
     <row r="12" spans="1:8" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="136" t="s">
+      <c r="A12" s="123" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="137"/>
+      <c r="B12" s="124"/>
       <c r="C12" s="49">
         <v>0</v>
       </c>
@@ -2014,10 +2014,10 @@
       <c r="H12" s="28"/>
     </row>
     <row r="13" spans="1:8" s="3" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="138" t="s">
+      <c r="A13" s="112" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="139"/>
+      <c r="B13" s="113"/>
       <c r="C13" s="49">
         <f>COUNTIFS(C16:C21, "&gt;=2.5",C16:C21,"&lt;7")</f>
         <v>0</v>
@@ -2177,11 +2177,11 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="75" t="s">
+      <c r="A20" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="B20" s="76"/>
-      <c r="C20" s="77"/>
+      <c r="B20" s="110"/>
+      <c r="C20" s="111"/>
       <c r="D20" s="50">
         <f>SUM(D16:D19)</f>
         <v>400</v>
@@ -2209,16 +2209,16 @@
         <f>IF(AND(C21&lt;=2.5,C21&lt;&gt;""),E21+$F$22/($C$11-$C$13-$C$12),E21-F21)</f>
         <v>0</v>
       </c>
-      <c r="I21" s="144" t="s">
+      <c r="I21" s="78" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="69" t="s">
+      <c r="A22" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="74"/>
-      <c r="C22" s="70"/>
+      <c r="B22" s="103"/>
+      <c r="C22" s="99"/>
       <c r="D22" s="33"/>
       <c r="E22" s="53">
         <f>SUM(E16:E19)</f>
@@ -2239,120 +2239,120 @@
       <c r="J22" s="5"/>
     </row>
     <row r="23" spans="1:10" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="143" t="s">
+      <c r="A23" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="B23" s="121"/>
-      <c r="C23" s="121"/>
-      <c r="D23" s="114"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="61"/>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="114"/>
-      <c r="B24" s="114"/>
-      <c r="C24" s="114"/>
-      <c r="D24" s="114"/>
-      <c r="E24" s="114"/>
-      <c r="F24" s="114"/>
-      <c r="G24" s="114"/>
-      <c r="H24" s="114"/>
+      <c r="A24" s="61"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="113" t="s">
+      <c r="A25" s="104" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="113"/>
-      <c r="C25" s="113" t="s">
+      <c r="B25" s="104"/>
+      <c r="C25" s="104" t="s">
         <v>51</v>
       </c>
-      <c r="D25" s="113"/>
-      <c r="E25" s="150" t="s">
+      <c r="D25" s="104"/>
+      <c r="E25" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="F25" s="150"/>
-      <c r="G25" s="113" t="s">
+      <c r="F25" s="105"/>
+      <c r="G25" s="104" t="s">
         <v>50</v>
       </c>
-      <c r="H25" s="113"/>
+      <c r="H25" s="104"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="73" t="s">
+      <c r="A26" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="73"/>
-      <c r="C26" s="73" t="s">
+      <c r="B26" s="102"/>
+      <c r="C26" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="D26" s="73"/>
-      <c r="E26" s="149" t="s">
+      <c r="D26" s="102"/>
+      <c r="E26" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="F26" s="149"/>
-      <c r="G26" s="73" t="s">
+      <c r="F26" s="106"/>
+      <c r="G26" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="H26" s="73"/>
+      <c r="H26" s="102"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="122"/>
-      <c r="B27" s="123"/>
-      <c r="C27" s="114"/>
-      <c r="D27" s="114"/>
-      <c r="E27" s="148"/>
-      <c r="F27" s="148"/>
-      <c r="G27" s="114"/>
-      <c r="H27" s="114"/>
+      <c r="A27" s="60"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="61"/>
+      <c r="H27" s="61"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="122"/>
-      <c r="B28" s="123"/>
-      <c r="C28" s="114"/>
-      <c r="D28" s="114"/>
-      <c r="E28" s="148"/>
-      <c r="F28" s="148"/>
-      <c r="G28" s="114"/>
-      <c r="H28" s="114"/>
+      <c r="A28" s="60"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="61"/>
+      <c r="H28" s="61"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="122"/>
-      <c r="B29" s="123"/>
-      <c r="C29" s="114"/>
-      <c r="D29" s="114"/>
-      <c r="E29" s="148"/>
-      <c r="F29" s="148"/>
-      <c r="G29" s="114"/>
-      <c r="H29" s="114"/>
+      <c r="A29" s="60"/>
+      <c r="B29" s="66"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="124"/>
-      <c r="B30" s="125"/>
-      <c r="C30" s="114"/>
-      <c r="D30" s="114"/>
-      <c r="E30" s="148"/>
-      <c r="F30" s="148"/>
-      <c r="G30" s="114"/>
-      <c r="H30" s="114"/>
+      <c r="A30" s="67"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="61"/>
+      <c r="H30" s="61"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="113" t="s">
+      <c r="A31" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="B31" s="113"/>
-      <c r="C31" s="113" t="s">
+      <c r="B31" s="104"/>
+      <c r="C31" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="113"/>
-      <c r="E31" s="150" t="s">
+      <c r="D31" s="104"/>
+      <c r="E31" s="105" t="s">
         <v>44</v>
       </c>
-      <c r="F31" s="150"/>
-      <c r="G31" s="113" t="s">
+      <c r="F31" s="105"/>
+      <c r="G31" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="H31" s="113"/>
+      <c r="H31" s="104"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -2382,7 +2382,7 @@
     <mergeCell ref="C26:D26"/>
   </mergeCells>
   <pageMargins left="0.5" right="1" top="0.5" bottom="0.5" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="95" orientation="landscape" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="93" orientation="landscape" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="8" max="1048575" man="1"/>
   </colBreaks>
@@ -2397,8 +2397,8 @@
   </sheetPr>
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2414,55 +2414,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="89"/>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="90" t="s">
+      <c r="A1" s="135"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="136" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="96" t="s">
+      <c r="E1" s="137"/>
+      <c r="F1" s="137"/>
+      <c r="G1" s="142" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="97"/>
+      <c r="H1" s="143"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="89"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="96" t="s">
+      <c r="A2" s="135"/>
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="139"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="97"/>
+      <c r="H2" s="143"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="89"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="95"/>
-      <c r="G3" s="96" t="s">
+      <c r="A3" s="135"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="142" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="97"/>
+      <c r="H3" s="143"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="104" t="str">
+      <c r="A4" s="150" t="str">
         <f>'Phiếu tính CK'!H6</f>
         <v>Hà Nội, ngày 29 tháng 11 năm 2025</v>
       </c>
-      <c r="B4" s="104"/>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
+      <c r="B4" s="150"/>
+      <c r="C4" s="150"/>
+      <c r="D4" s="150"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="150"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="150"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
@@ -2499,27 +2499,27 @@
       <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="98" t="s">
+      <c r="A8" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="98" t="s">
+      <c r="B8" s="144" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="100" t="s">
+      <c r="C8" s="146" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="101"/>
-      <c r="E8" s="101"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="103" t="s">
+      <c r="D8" s="147"/>
+      <c r="E8" s="147"/>
+      <c r="F8" s="148"/>
+      <c r="G8" s="149" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="103"/>
+      <c r="H8" s="149"/>
       <c r="I8" s="59"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="99"/>
-      <c r="B9" s="99"/>
+      <c r="A9" s="145"/>
+      <c r="B9" s="145"/>
       <c r="C9" s="37" t="s">
         <v>16</v>
       </c>
@@ -2532,8 +2532,8 @@
       <c r="F9" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="103"/>
-      <c r="H9" s="103"/>
+      <c r="G9" s="149"/>
+      <c r="H9" s="149"/>
       <c r="I9" s="59"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2556,10 +2556,10 @@
         <f>D10-E10</f>
         <v>301</v>
       </c>
-      <c r="G10" s="84" t="s">
+      <c r="G10" s="130" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="84"/>
+      <c r="H10" s="130"/>
       <c r="I10" s="59"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2582,10 +2582,10 @@
         <f>D11-E11</f>
         <v>2</v>
       </c>
-      <c r="G11" s="84" t="s">
+      <c r="G11" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="84"/>
+      <c r="H11" s="130"/>
       <c r="I11" s="59"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2608,10 +2608,10 @@
         <f t="shared" ref="F12" si="0">D12</f>
         <v>178</v>
       </c>
-      <c r="G12" s="84" t="s">
+      <c r="G12" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="84"/>
+      <c r="H12" s="130"/>
       <c r="I12" s="59"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -2634,10 +2634,10 @@
         <f>D13-E13</f>
         <v>52</v>
       </c>
-      <c r="G13" s="84" t="s">
+      <c r="G13" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="H13" s="84"/>
+      <c r="H13" s="130"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="38">
@@ -2659,10 +2659,10 @@
         <f>D14-E14</f>
         <v>22</v>
       </c>
-      <c r="G14" s="84" t="s">
+      <c r="G14" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="H14" s="84"/>
+      <c r="H14" s="130"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="38">
@@ -2684,10 +2684,10 @@
         <f>D15-E15</f>
         <v>2</v>
       </c>
-      <c r="G15" s="84" t="s">
+      <c r="G15" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="H15" s="84"/>
+      <c r="H15" s="130"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="38">
@@ -2708,10 +2708,10 @@
       <c r="F16" s="42">
         <v>3</v>
       </c>
-      <c r="G16" s="84" t="s">
+      <c r="G16" s="130" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="84"/>
+      <c r="H16" s="130"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="38">
@@ -2726,14 +2726,14 @@
         <v>25</v>
       </c>
       <c r="F17" s="42"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="130"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="85" t="s">
+      <c r="A18" s="131" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="86"/>
+      <c r="B18" s="132"/>
       <c r="C18" s="44">
         <f>SUM(C10:C17)</f>
         <v>1960</v>
@@ -2750,8 +2750,8 @@
         <f>SUM(F10:F17)</f>
         <v>560</v>
       </c>
-      <c r="G18" s="87"/>
-      <c r="H18" s="88"/>
+      <c r="G18" s="133"/>
+      <c r="H18" s="134"/>
     </row>
     <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="18"/>
@@ -2764,40 +2764,40 @@
       <c r="H19" s="18"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="83" t="s">
+      <c r="A20" s="129" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="83"/>
-      <c r="C20" s="83" t="s">
+      <c r="B20" s="129"/>
+      <c r="C20" s="129" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83" t="s">
+      <c r="D20" s="129"/>
+      <c r="E20" s="129" t="s">
         <v>71</v>
       </c>
-      <c r="F20" s="83"/>
-      <c r="G20" s="72" t="s">
+      <c r="F20" s="129"/>
+      <c r="G20" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="H20" s="72"/>
+      <c r="H20" s="101"/>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="73" t="s">
+      <c r="A21" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="73"/>
-      <c r="C21" s="73" t="s">
+      <c r="B21" s="102"/>
+      <c r="C21" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="73"/>
-      <c r="E21" s="73" t="s">
+      <c r="D21" s="102"/>
+      <c r="E21" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="F21" s="73"/>
-      <c r="G21" s="73" t="s">
+      <c r="F21" s="102"/>
+      <c r="G21" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="H21" s="73"/>
+      <c r="H21" s="102"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="32"/>
@@ -2840,22 +2840,22 @@
       <c r="H25" s="46"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="82" t="s">
+      <c r="A26" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="82"/>
-      <c r="C26" s="82" t="s">
+      <c r="B26" s="128"/>
+      <c r="C26" s="128" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="82"/>
-      <c r="E26" s="82" t="s">
+      <c r="D26" s="128"/>
+      <c r="E26" s="128" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="82"/>
-      <c r="G26" s="82" t="s">
+      <c r="F26" s="128"/>
+      <c r="G26" s="128" t="s">
         <v>10</v>
       </c>
-      <c r="H26" s="82"/>
+      <c r="H26" s="128"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="35"/>
@@ -2869,21 +2869,17 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:H9"/>
+    <mergeCell ref="A4:H4"/>
     <mergeCell ref="A1:C3"/>
     <mergeCell ref="D1:F3"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G3:H3"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G8:H9"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="C20:D20"/>
     <mergeCell ref="G11:H11"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="G18:H18"/>
@@ -2891,16 +2887,20 @@
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="C20:D20"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="C21:D21"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:H26"/>
   </mergeCells>
   <pageMargins left="0.5" right="1" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup paperSize="9" scale="86" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/5. Other/Chiết khấu/Năm 2025/Chiết-Khấu-tháng-11-2025.xlsx
+++ b/5. Other/Chiết khấu/Năm 2025/Chiết-Khấu-tháng-11-2025.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E457B846-D17B-44B5-9644-61A9E1852C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2CBEAC-3459-4F84-8D51-14F30A064E17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -972,6 +972,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1012,9 +1015,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2398,7 +2398,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2414,55 +2414,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="135"/>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="136" t="s">
+      <c r="A1" s="136"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="137" t="s">
         <v>72</v>
       </c>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="142" t="s">
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="143" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="143"/>
+      <c r="H1" s="144"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="135"/>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="139"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="142" t="s">
+      <c r="A2" s="136"/>
+      <c r="B2" s="136"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="143"/>
+      <c r="H2" s="144"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="135"/>
-      <c r="B3" s="135"/>
-      <c r="C3" s="135"/>
-      <c r="D3" s="140"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="142" t="s">
+      <c r="A3" s="136"/>
+      <c r="B3" s="136"/>
+      <c r="C3" s="136"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="142"/>
+      <c r="G3" s="143" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="143"/>
+      <c r="H3" s="144"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="150" t="str">
+      <c r="A4" s="135" t="str">
         <f>'Phiếu tính CK'!H6</f>
         <v>Hà Nội, ngày 29 tháng 11 năm 2025</v>
       </c>
-      <c r="B4" s="150"/>
-      <c r="C4" s="150"/>
-      <c r="D4" s="150"/>
-      <c r="E4" s="150"/>
-      <c r="F4" s="150"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="150"/>
+      <c r="B4" s="135"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
@@ -2499,27 +2499,27 @@
       <c r="H7" s="18"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="144" t="s">
+      <c r="A8" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="144" t="s">
+      <c r="B8" s="145" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="146" t="s">
+      <c r="C8" s="147" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="147"/>
-      <c r="E8" s="147"/>
-      <c r="F8" s="148"/>
-      <c r="G8" s="149" t="s">
+      <c r="D8" s="148"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="149"/>
+      <c r="G8" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="149"/>
+      <c r="H8" s="150"/>
       <c r="I8" s="59"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="145"/>
-      <c r="B9" s="145"/>
+      <c r="A9" s="146"/>
+      <c r="B9" s="146"/>
       <c r="C9" s="37" t="s">
         <v>16</v>
       </c>
@@ -2532,8 +2532,8 @@
       <c r="F9" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="149"/>
-      <c r="H9" s="149"/>
+      <c r="G9" s="150"/>
+      <c r="H9" s="150"/>
       <c r="I9" s="59"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2725,7 +2725,9 @@
       <c r="E17" s="40">
         <v>25</v>
       </c>
-      <c r="F17" s="42"/>
+      <c r="F17" s="42">
+        <v>0</v>
+      </c>
       <c r="G17" s="130"/>
       <c r="H17" s="130"/>
     </row>
